--- a/LM2ReadandList/HstoryExcel/ListOutof40.xlsx
+++ b/LM2ReadandList/HstoryExcel/ListOutof40.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MIS-Kung\Desktop\github\LM2ReadandList\LM2ReadandList\HstoryExcel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E75106B-59FE-4F64-AD4B-134755C8A074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="18315" windowHeight="7800" tabRatio="852"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="852" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="空白" sheetId="2" r:id="rId1"/>
@@ -74,11 +80,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -419,7 +425,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -435,176 +441,158 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -612,6 +600,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -626,13 +622,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1237385</xdr:colOff>
+      <xdr:colOff>1229765</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>354173</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="圖片 1" descr="白底黑字.png"/>
+        <xdr:cNvPr id="2" name="圖片 1" descr="白底黑字.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -664,13 +666,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1237385</xdr:colOff>
+      <xdr:colOff>1229765</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>354173</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="圖片 4" descr="白底黑字.png"/>
+        <xdr:cNvPr id="5" name="圖片 4" descr="白底黑字.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -697,7 +705,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="連號"/>
@@ -807,9 +815,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -847,7 +855,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -881,6 +889,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -915,9 +924,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1090,370 +1100,402 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="H13" sqref="H13:K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="39" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="9.75" style="3" customWidth="1"/>
-    <col min="7" max="7" width="17.875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.75" style="3" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="9.75" style="3" customWidth="1"/>
-    <col min="11" max="11" width="17.875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="34.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="34.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="39" customHeight="1">
-      <c r="A1" s="18"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="47" t="s">
+    <row r="1" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="12"/>
-    </row>
-    <row r="2" spans="1:12" ht="39" customHeight="1">
-      <c r="A2" s="15"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="53" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="28"/>
+    </row>
+    <row r="2" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="22"/>
-    </row>
-    <row r="3" spans="1:12" ht="39" customHeight="1" thickBot="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="59" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="18"/>
+    </row>
+    <row r="3" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
       <c r="H3" s="11"/>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="22"/>
-    </row>
-    <row r="4" spans="1:12" ht="39" customHeight="1" thickBot="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="38" t="s">
+      <c r="J3" s="33"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="14"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42" t="s">
+      <c r="E4" s="43"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="22"/>
-    </row>
-    <row r="5" spans="1:12" ht="39" customHeight="1" thickBot="1">
+      <c r="I4" s="47"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="18"/>
+    </row>
+    <row r="5" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="9"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="38" t="s">
+      <c r="E5" s="43"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="22"/>
-    </row>
-    <row r="6" spans="1:12" s="7" customFormat="1" ht="39" customHeight="1" thickBot="1">
+      <c r="I5" s="47"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="18"/>
+    </row>
+    <row r="6" spans="1:12" s="7" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="23"/>
-    </row>
-    <row r="7" spans="1:12" s="7" customFormat="1" ht="39" customHeight="1" thickBot="1">
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" spans="1:12" s="7" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="36"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="23"/>
-    </row>
-    <row r="8" spans="1:12" s="7" customFormat="1" ht="39" customHeight="1" thickBot="1">
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:12" s="7" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="36"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="23"/>
-    </row>
-    <row r="9" spans="1:12" s="7" customFormat="1" ht="39" customHeight="1" thickBot="1">
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" spans="1:12" s="7" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="37"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="23"/>
-    </row>
-    <row r="10" spans="1:12" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A10" s="29" t="s">
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="1:12" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="24"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="25" t="s">
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J10" s="26"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="L10" s="22"/>
-    </row>
-    <row r="11" spans="1:12" ht="10.5" customHeight="1" thickBot="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="12"/>
-    </row>
-    <row r="12" spans="1:12" ht="39" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="47" t="s">
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="1:12" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="52"/>
-    </row>
-    <row r="13" spans="1:12" ht="39" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="53" t="s">
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="28"/>
+    </row>
+    <row r="13" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="58"/>
-    </row>
-    <row r="14" spans="1:12" ht="39" customHeight="1" thickBot="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="59" t="s">
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="55"/>
+    </row>
+    <row r="14" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="14"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="61"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34"/>
       <c r="H14" s="11"/>
-      <c r="I14" s="60" t="s">
+      <c r="I14" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="60"/>
-      <c r="K14" s="61"/>
-    </row>
-    <row r="15" spans="1:12" ht="39" customHeight="1" thickBot="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="38" t="s">
+      <c r="J14" s="33"/>
+      <c r="K14" s="34"/>
+    </row>
+    <row r="15" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="14"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="42" t="s">
+      <c r="E15" s="43"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="43"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="41"/>
-    </row>
-    <row r="16" spans="1:12" ht="39" customHeight="1" thickBot="1">
+      <c r="I15" s="47"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="45"/>
+    </row>
+    <row r="16" spans="1:12" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="38" t="s">
+      <c r="E16" s="43"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="43"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="46"/>
-    </row>
-    <row r="17" spans="1:11" ht="39" customHeight="1" thickBot="1">
+      <c r="I16" s="47"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="52"/>
+    </row>
+    <row r="17" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="34"/>
-    </row>
-    <row r="18" spans="1:11" ht="39" customHeight="1" thickBot="1">
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="49"/>
+    </row>
+    <row r="18" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="36"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="34"/>
-    </row>
-    <row r="19" spans="1:11" ht="39" customHeight="1" thickBot="1">
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="49"/>
+    </row>
+    <row r="19" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="36"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
-    </row>
-    <row r="20" spans="1:11" ht="39" customHeight="1" thickBot="1">
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="49"/>
+    </row>
+    <row r="20" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="37"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
-    </row>
-    <row r="21" spans="1:11" ht="39" customHeight="1" thickBot="1">
-      <c r="A21" s="29" t="s">
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="49"/>
+    </row>
+    <row r="21" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="24"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="28" t="s">
+      <c r="F21" s="40"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J21" s="27"/>
+      <c r="J21" s="22"/>
       <c r="K21" s="5" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="F10:H10"/>
@@ -1469,66 +1511,20 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:K3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:G4 F15:G15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:G4 F15:G15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$L:$L</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:K1 H12:K12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:K1 H12:K12" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>品名</formula1>
     </dataValidation>
   </dataValidations>
